--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4501F430-99CE-4349-8C4F-4C33950B7EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BB4CF-39EB-49AA-BD89-816AB23FD5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -756,12 +756,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2287,7 @@
         <v>12.1</v>
       </c>
       <c r="D2" s="3">
-        <v>3600</v>
+        <v>70000</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BB4CF-39EB-49AA-BD89-816AB23FD5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{354AB88F-E128-4F3B-89AF-8642798C2B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="9" r:id="rId1"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Documents/GitHub/pidpool/TriangleWaterSupplyDashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354AB88F-E128-4F3B-89AF-8642798C2B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F93A8F5-6E2E-704F-B468-CE6BEC40420E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="21600" windowHeight="11380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="9" r:id="rId1"/>
@@ -32,20 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="184">
   <si>
     <t>pwsid</t>
   </si>
@@ -165,12 +157,6 @@
   </si>
   <si>
     <t>Not sure how to convert this to percent of normal year… only trending up or down</t>
-  </si>
-  <si>
-    <t>number_connections</t>
-  </si>
-  <si>
-    <t>connection_type</t>
   </si>
   <si>
     <t>residential</t>
@@ -1052,29 +1038,29 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="5.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="3"/>
     <col min="10" max="10" width="5" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1085,15 +1071,15 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1102,15 +1088,15 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1119,15 +1105,15 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -1136,13 +1122,13 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1155,15 +1141,15 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -1174,15 +1160,15 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -1193,15 +1179,15 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -1212,15 +1198,15 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -1231,13 +1217,13 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -1248,15 +1234,15 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -1265,15 +1251,15 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -1282,7 +1268,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19" t="s">
@@ -1290,7 +1276,7 @@
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -1299,15 +1285,15 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -1333,15 +1319,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1355,18 +1341,18 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1375,103 +1361,103 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -1491,31 +1477,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1534,15 +1520,15 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1634,10 +1620,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,25 +1639,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1690,167 +1676,167 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="16">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="16">
         <v>75000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
       </c>
       <c r="B16" s="16">
         <v>27510</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
       <c r="B19" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1872,17 +1858,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="23.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1890,18 +1876,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1913,9 +1899,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1927,9 +1913,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1941,9 +1927,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -1955,9 +1941,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1969,9 +1955,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -1983,9 +1969,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -2026,127 +2012,127 @@
       <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="33.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2178,15 +2164,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -2194,44 +2180,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2244,245 +2230,177 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="11.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>43831</v>
       </c>
       <c r="B2" s="28">
-        <v>43837</v>
+        <v>43832</v>
       </c>
       <c r="C2" s="14">
         <v>12.1</v>
       </c>
-      <c r="D2" s="3">
-        <v>70000</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
-        <v>43838</v>
+        <v>43832</v>
       </c>
       <c r="B3" s="28">
-        <v>43844</v>
+        <v>43833</v>
       </c>
       <c r="C3" s="14">
         <v>11.9</v>
       </c>
-      <c r="D3" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
-        <v>43845</v>
+        <v>43833</v>
       </c>
       <c r="B4" s="28">
-        <v>43851</v>
+        <v>43834</v>
       </c>
       <c r="C4" s="14">
         <v>12.3</v>
       </c>
-      <c r="D4" s="3">
-        <v>3601</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>43852</v>
+        <v>43834</v>
       </c>
       <c r="B5" s="28">
-        <v>43858</v>
+        <v>43835</v>
       </c>
       <c r="C5" s="14">
         <v>12.3</v>
       </c>
-      <c r="D5" s="3">
-        <v>3599</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <v>43831</v>
+        <v>43835</v>
       </c>
       <c r="B6" s="28">
-        <v>43837</v>
+        <v>43836</v>
       </c>
       <c r="C6" s="14">
         <v>8.4</v>
       </c>
-      <c r="D6" s="3">
-        <v>111</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
-        <v>43838</v>
+        <v>43836</v>
       </c>
       <c r="B7" s="28">
-        <v>43844</v>
+        <v>43837</v>
       </c>
       <c r="C7" s="14">
         <v>8.4</v>
       </c>
-      <c r="D7" s="3">
-        <v>111</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
-        <v>43845</v>
+        <v>43837</v>
       </c>
       <c r="B8" s="28">
-        <v>43851</v>
+        <v>43838</v>
       </c>
       <c r="C8" s="14">
         <v>8.5</v>
       </c>
-      <c r="D8" s="3">
-        <v>111</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
-        <v>43852</v>
+        <v>43838</v>
       </c>
       <c r="B9" s="28">
-        <v>43858</v>
+        <v>43839</v>
       </c>
       <c r="C9" s="14">
         <v>8.5</v>
       </c>
-      <c r="D9" s="3">
-        <v>111</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{288BD2A7-6908-4100-9C93-30AB1E6933E8}">
-          <x14:formula1>
-            <xm:f>connection_type!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2497,18 +2415,18 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="58.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2437,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>28</v>
@@ -2531,7 +2449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -2548,13 +2466,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -2571,10 +2489,10 @@
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2591,10 +2509,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -2611,10 +2529,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="28"/>
@@ -2622,9 +2540,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -2636,18 +2554,18 @@
         <v>432</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -2659,15 +2577,15 @@
         <v>431</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -2679,15 +2597,15 @@
         <v>430</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -2699,13 +2617,13 @@
         <v>429</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="28"/>
@@ -2713,7 +2631,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -2727,16 +2645,16 @@
         <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2750,16 +2668,16 @@
         <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -2773,13 +2691,13 @@
         <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -2793,13 +2711,13 @@
         <v>86</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="28"/>
@@ -2807,7 +2725,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="28"/>
@@ -2815,7 +2733,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2747,7 @@
         <v>-2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>34</v>
@@ -2838,7 +2756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -2852,13 +2770,13 @@
         <v>-3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2872,13 +2790,13 @@
         <v>-4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2810,7 @@
         <v>-5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>34</v>
@@ -2915,249 +2833,249 @@
       <selection activeCell="A10" sqref="A10:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>231</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3201,16 +3119,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -3224,7 +3142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -3235,12 +3153,12 @@
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="25">
         <v>43556</v>
@@ -3250,9 +3168,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="25">
         <v>43682</v>
@@ -3262,7 +3180,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
     </row>
   </sheetData>
